--- a/outputs/MSN20251028359银行流水1_audit_report.xlsx
+++ b/outputs/MSN20251028359银行流水1_audit_report.xlsx
@@ -38,7 +38,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -55,12 +55,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="0051CF66"/>
         <bgColor rgb="0051CF66"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF6B6B"/>
-        <bgColor rgb="00FF6B6B"/>
       </patternFill>
     </fill>
   </fills>
@@ -82,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -101,9 +95,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -497,7 +488,7 @@
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>生成时间: 2026-01-31 21:51:50</t>
+          <t>生成时间: 2026-01-31 22:48:56</t>
         </is>
       </c>
     </row>
@@ -580,7 +571,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -590,7 +581,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -689,33 +680,34 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>【执行步骤说明】
-严格按照规则定义的判断逻辑执行：
-Step 1: 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)' 对应的总笔数。
-- 执行结果：在提供的 'Comportamiento' 和 'total_movimientos' 数据中，均明确显示 'total_movimientos_abonos: 4'。因此，数值1 = 4。
-Step 2: 遍历 'Detalle de Movimientos Realizados' 部分的所有交易行。
-- 执行结果：明细部分共列出 34 笔交易。
-Step 3: [关键过滤] 仅统计 'Abonos' 列有有效数值（非空且不为0）的行。忽略只有 'Cargo' 列有值的行。
-- 执行结果：逐行检查明细，发现以下4笔交易的 'Abonos' 列有有效数值（非空且不为0）：
-  1. 第16笔：Abono:13637.59
-  2. 第24笔：Abono:82941.29
-  3. 第25笔：Abono:63925.15
-  4. 第33笔：Abono:3580.0
-  其余30笔交易的 'Abonos' 列为“无”或空，已按规则忽略。
-Step 4: 计算符合条件的交易总行数。
-- 执行结果：符合条件的交易共4笔。因此，数值2 = 4。
-【校验规则执行】
-比较数值1（来自Comportamiento，为4）和数值2（来自明细统计，为4）是否相等。
-- 比较结果：4 == 4，两者相等。
-【决策结果】
-根据规则，如果两个数值相等，则输出“一致”（无异常）。
-【最终判定】
-数据一致，未发现异常。因此，hit=false。</t>
+          <t>规则ID: MSTAR_BBVA_DTL_CNT_ABONOS
+规则名称: 明细交易笔数校验_入账笔数
+执行步骤与结果：
+(Step 1) 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)' 对应的总笔数（Total Movimientos Abonos）。
+- 提取结果：数值1 = 4。
+(Step 2) 遍历 'Detalle de Movimientos Realizados' 部分的所有交易行。
+- 交易明细总行数：34。
+(Step 3) [关键过滤] 仅统计 'Abonos' 列有有效数值（非空且不为0）的行。如果某行只有 'Cargo' 列有值，必须忽略。
+- 根据数据中提供的参考值：'其中包含有效 Abonos (入账) 的交易数: 4'。
+- 为便于人工复核，列出所有符合条件的4笔交易明细（按原始顺序）：
+  1. 第16笔：ABONOS:13637.59
+  2. 第24笔：ABONOS:82941.29
+  3. 第25笔：ABONOS:63925.15
+  4. 第33笔：ABONOS:3580.0
+(Step 4) 计算符合条件的交易总行数。
+- 统计结果：数值2 = 4。
+校验规则：比较数值1和数值2是否相等。
+- 数值1 (来自Comportamiento) = 4
+- 数值2 (来自明细统计) = 4
+- 比较结果：相等。
+决策结果：如果相等，输出一致（无异常）。
+- 结论：一致。
+hit值判定：根据规则，一致 = 合规 = hit=false。</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>数据充足，逻辑清晰，判定明确。</t>
+          <t>数据中已提供'其中包含有效 Abonos (入账) 的交易数: 4'作为参考值，与手动统计结果一致。交易笔数少于30笔，已列出全部符合条件的交易明细。</t>
         </is>
       </c>
     </row>
@@ -745,61 +737,67 @@
           <t>规则ID: MSTAR_BBVA_DTL_CNT_CARGOS
 规则名称: 明细交易笔数校验_出账笔数
 执行步骤（严格按照判断逻辑）：
-Step 1: 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总笔数。
-   - 数据来源：在提供的 'Comportamiento' 和 'total_movimientos' 部分，明确列出 'Retiros / Cargos (-): 30' 和 'total_movimientos_cargos: 30'。
-   - 提取结果：数值1 = 30。
-Step 2: 遍历 'Detalle de Movimientos Realizados' 部分的所有交易行。
-   - 数据来源：已提供结构化明细，总笔数为34。
-Step 3: [关键过滤] 仅统计 'Cargos' 列有有效数值（非空且不为0）的行。
-   - 执行过程：逐行检查明细中 'Cargo' 字段。
-   - 过滤结果：明细中已预计算并注明“其中包含有效 Cargos (出账) 的交易数: 30”。为验证，列出所有Cargo不为“无”的交易（共30笔）：
-     1. Cargo:1676.47
-     2. Cargo:16182.0
-     3. Cargo:1373.54
-     4. Cargo:8725.74
-     5. Cargo:1503.93
-     6. Cargo:15.0
-     7. Cargo:2.4
-     8. Cargo:1639.2
-     9. Cargo:865.0
-     10. Cargo:4400.0
-     11. Cargo:1940.11
-     12. Cargo:1562.56
-     13. Cargo:2083.0
-     14. Cargo:27970.0
-     15. Cargo:1432.85
-     16. Cargo:1460.56
-     17. Cargo:7787.67
-     18. Cargo:843.53
-     19. Cargo:1457.17
-     20. Cargo:260.0
-     21. Cargo:1485.73
-     22. Cargo:1063.72
-     23. Cargo:1392.58
-     24. Cargo:1137.5
-     25. Cargo:3282.8
-     26. Cargo:29045.33
-     27. Cargo:4398.0
-     28. Cargo:8360.5
-     29. Cargo:63468.81
-     30. Cargo:4064.26
-   - 注意：第16行和第24-25行Cargo为“无”，属于Abonos（入账），已正确忽略。
-Step 4: 计算符合条件的交易总行数。
-   - 计算结果：数值2 = 30。
+(Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总笔数（Total Movimientos Cargos）。
+- 数据来源：'Comportamiento' 部分明确列出 'Retiros / Cargos (-): 30  200,879.96'。
+- 提取结果：数值1（来自Comportamiento的总笔数） = 30。
+(Step 2) 遍历 'Detalle de Movimientos Realizados'（交易明细）部分的所有交易行。
+- 数据来源：明细部分共列出34笔交易。
+(Step 3) [关键过滤] 仅统计 'Cargos' 列有有效数值（非空且不为0）的行。如果某行只有 'Abono' 列有值，必须忽略。
+- 过滤逻辑：逐行检查明细中 'CARGOS' 字段。若为'无'或空，则忽略；若为有效数值（如1676.47），则计入。
+- 数据参考：已提取数据中已提供预计算值'其中包含有效 Cargos (出账) 的交易数: 30'，作为重要参考。
+(Step 4) 计算符合条件的交易总行数。
+- 手动复核（因交易笔数=30，少于30笔，按要求列出所有明细）：
+  1. CARGOS:1676.47 (计入)
+  2. CARGOS:16182.0 (计入)
+  3. CARGOS:1373.54 (计入)
+  4. CARGOS:8725.74 (计入)
+  5. CARGOS:1503.93 (计入)
+  6. CARGOS:15.0 (计入)
+  7. CARGOS:2.4 (计入)
+  8. CARGOS:1639.2 (计入)
+  9. CARGOS:865.0 (计入)
+  10. CARGOS:4400.0 (计入)
+  11. CARGOS:1940.11 (计入)
+  12. CARGOS:1562.56 (计入)
+  13. CARGOS:2083.0 (计入)
+  14. CARGOS:27970.0 (计入)
+  15. CARGOS:1432.85 (计入)
+  16. CARGOS:无 (忽略，因ABONOS有值)
+  17. CARGOS:1460.56 (计入)
+  18. CARGOS:7787.67 (计入)
+  19. CARGOS:843.53 (计入)
+  20. CARGOS:1457.17 (计入)
+  21. CARGOS:260.0 (计入)
+  22. CARGOS:1485.73 (计入)
+  23. CARGOS:1063.72 (计入)
+  24. CARGOS:无 (忽略，因ABONOS有值)
+  25. CARGOS:无 (忽略，因ABONOS有值)
+  26. CARGOS:1392.58 (计入)
+  27. CARGOS:1137.5 (计入)
+  28. CARGOS:3282.8 (计入)
+  29. CARGOS:29045.33 (计入)
+  30. CARGOS:4398.0 (计入)
+  31. CARGOS:8360.5 (计入)
+  32. CARGOS:63468.81 (计入)
+  33. CARGOS:无 (忽略，因ABONOS有值)
+  34. CARGOS:4064.26 (计入)
+- 统计结果：共计30笔交易满足'Cargos列有有效数值'的条件。
+- 提取结果：数值2（来自明细的统计笔数） = 30。
 校验规则（严格按照校验规则）：
-比较数值1（来自Comportamiento）和数值2（来自明细统计）是否相等。
-   - 数值1 = 30
-   - 数值2 = 30
-   - 比较结果：相等。
+比较数值1（来自Comportamiento）与数值2（来自明细）是否相等。
+- 数值1 = 30
+- 数值2 = 30
+- 比较结果：相等。
 决策结果（严格按照决策结果）：
-因为两个数值相等，所以输出“一致”（无异常）。
-最终判定：
-根据规则，一致 → hit=false。</t>
+如果相等，输出一致（无异常）。
+- 结论：一致。
+最终判定（严格按照hit值判断逻辑）：
+因为两个数值相等，输出“一致”，所以 hit=false（合规/未命中）。</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>数据完整，逻辑清晰，验证通过。</t>
+          <t>已严格按照规则定义的步骤执行：提取Comportamiento中的总笔数，遍历明细并过滤出Cargos有效的交易，统计笔数后进行比较。两者均为30，完全一致。</t>
         </is>
       </c>
     </row>
@@ -826,36 +824,36 @@
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>【执行步骤说明】
-严格按照规则定义的判断逻辑执行：
-Step 1: 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)' 对应的总金额。
+          <t>规则ID: MSTAR_BBVA_DTL_AMT_ABONOS
+规则名称: 明细交易金额校验_入账金额
+执行步骤与结果：
+(Step 1) 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)'（入账）对应的总金额。
 - 提取结果：数值1 = 164,084.03
-Step 2: 遍历 'Detalle de Movimientos Realizados' 部分。
-Step 3: 累加所有 'Abonos' 列的数值，忽略 'Cargo' 列的数值。
+(Step 2) 遍历 'Detalle de Movimientos Realizados' 或raw_transaction_data部分。
+- 已遍历提供的34笔交易明细。
+(Step 3) [关键过滤] 累加所有 'Abonos' 列的数值。忽略 'Cargo' 列的数值。
 - 根据数据提示，有效 Abonos 交易数为 4 笔。
-- 由于交易笔数较少（4笔 &lt; 30笔），按规则列出所有用于计算的交易金额明细：
-  1. 第16笔: Abono: 13,637.59
-  2. 第24笔: Abono: 82,941.29
-  3. 第25笔: Abono: 63,925.15
-  4. 第33笔: Abono: 3,580.00
-Step 4: 确保金额格式转换正确（处理千分位逗号）。
-- 明细中金额已为数字格式，无需转换。
-- 计算明细总和：数值2 = 13,637.59 + 82,941.29 + 63,925.15 + 3,580.00 = 164,084.03
-【校验规则执行】
-比较 Step 1 的数值1 与 Step 3/4 的数值2 是否相等。
+- 明细中 'ABONOS' 列不为空的交易如下（按原始顺序列出）：
+  1. 第16笔：ABONOS:13637.59
+  2. 第24笔：ABONOS:82941.29
+  3. 第25笔：ABONOS:63925.15
+  4. 第33笔：ABONOS:3580.0
+- 累加计算：13637.59 + 82941.29 + 63925.15 + 3580.0 = 164,084.03
+- 提取结果：数值2 = 164,084.03
+(Step 4) 确保金额格式转换正确（处理千分位逗号）。
+- 明细中的金额已为数字格式，无需额外转换。
+校验规则：比较数值1和数值2是否相等。
 - 数值1 (Comportamiento): 164,084.03
 - 数值2 (明细累加): 164,084.03
 - 比较结果：两者完全相等。
-【决策结果】
-根据规则，如果两个数值相等，则输出“一致”（无异常）。
-【hit值判定】
-根据规则逻辑：一致 = 数据匹配 = 合规 = hit=false。
-因此，判定 hit=false。</t>
+决策结果：如果相等，输出一致（无异常）。
+- 结论：一致。
+hit值判定：根据规则，一致 = 合规 = hit=false。</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>明细中Abonos金额累加结果与Comportamiento中报告的总额完全一致，验证通过。</t>
+          <t>数据完整，计算过程清晰，结果明确。</t>
         </is>
       </c>
     </row>
@@ -882,62 +880,49 @@
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>【执行步骤说明】
-严格按照规则MSTAR_BBVA_DTL_AMT_CARGOS的判断逻辑执行：
-(Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总金额。提取结果为：200,879.96。
-(Step 2) 遍历 'Detalle de Movimientos Realizados' 部分。
+          <t>规则ID: MSTAR_BBVA_DTL_AMT_CARGOS
+规则名称: 明细交易金额校验_出账金额
+执行步骤与结果：
+(Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总金额。
+- 提取结果：数值1 = 200,879.96
+(Step 2) 遍历 'Detalle de Movimientos Realizados' 或raw_transaction_data部分。
+- 已遍历全部34条明细。
 (Step 3) [关键过滤] 累加所有 'Cargos' 列的数值。忽略 'Abono' 列的数值。
-(Step 4) 确保金额格式转换正确（处理千分位逗号）。明细中所有Cargo金额均为数字格式，无需转换。
-【明细数据与计算】
-根据规则要求，累加所有Cargos列的数值。明细中有效Cargos交易数为30笔（与数据中提供的参考值一致）。
-由于交易笔数（30笔）少于30笔的阈值，列出所有用于计算的交易金额明细（按原始顺序）：
-1. 1676.47
-2. 16182.0
-3. 1373.54
-4. 8725.74
-5. 1503.93
-6. 15.0
-7. 2.4
-8. 1639.2
-9. 865.0
-10. 4400.0
-11. 1940.11
-12. 1562.56
-13. 2083.0
-14. 27970.0
-15. 1432.85
-16. 0.0 (该笔交易Cargo列为“无”，视为0)
-17. 1460.56
-18. 7787.67
-19. 843.53
-20. 1457.17
-21. 260.0
-22. 1485.73
-23. 1063.72
-24. 0.0 (该笔交易Cargo列为“无”，视为0)
-25. 0.0 (该笔交易Cargo列为“无”，视为0)
-26. 1392.58
-27. 1137.5
-28. 3282.8
-29. 29045.33
-30. 4398.0
-31. 8360.5
-32. 63468.81
-33. 0.0 (该笔交易Cargo列为“无”，视为0)
-34. 4064.26
-求和计算：
-将上述所有数值相加：1676.47 + 16182.0 + 1373.54 + 8725.74 + 1503.93 + 15.0 + 2.4 + 1639.2 + 865.0 + 4400.0 + 1940.11 + 1562.56 + 2083.0 + 27970.0 + 1432.85 + 0 + 1460.56 + 7787.67 + 843.53 + 1457.17 + 260.0 + 1485.73 + 1063.72 + 0 + 0 + 1392.58 + 1137.5 + 3282.8 + 29045.33 + 4398.0 + 8360.5 + 63468.81 + 0 + 4064.26 = 200,879.96。
-【校验与结论】
-数值1（来自Comportamiento的Retiros / Cargos）：200,879.96。
-数值2（来自明细累加的Cargos总额）：200,879.96。
-根据校验规则：比较1和2是否相等。两者完全相等。
-根据决策结果：如果相等，输出一致（无异常）。
-因此，判定为一致，hit=false。</t>
+- 过滤出所有CARGOS列不为“无”的交易。根据数据提示，有效Cargos交易数为30笔。
+- 由于交易笔数较多（30笔），根据要求，列出前5笔和后5笔交易金额作为示例，并展示求和过程。
+- 前5笔Cargos金额明细：
+  1. 1676.47
+  2. 16182.0
+  3. 1373.54
+  4. 8725.74
+  5. 1503.93
+- ... (中间20笔省略)
+- 后5笔Cargos金额明细：
+  26. 1392.58
+  27. 1137.5
+  28. 3282.8
+  29. 29045.33
+  30. 4398.0
+  31. 8360.5
+  32. 63468.81
+  33. (此项为Abono，忽略)
+  34. 4064.26
+- 对上述30笔Cargos金额进行累加。
+(Step 4) 确保金额格式转换正确（处理千分位逗号）。
+- 明细中金额无千分位逗号，直接累加。
+- 累加结果：数值2 = 200,879.96
+校验规则：比较数值1和数值2是否相等。
+- 数值1 (Comportamiento): 200,879.96
+- 数值2 (明细累加): 200,879.96
+- 比较结果：两者完全相等。
+决策结果：如果相等，输出一致（无异常）。
+- 结论：一致。
+hit值判定：根据规则，一致 = 合规 = hit=false。</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>规则仅校验出账总金额是否一致。明细中Cargo列为“无”的交易已按0处理。计算总额与Comportamiento中提供的总额完全一致，验证通过。</t>
+          <t>明细中Cargos交易笔数为30笔，与Comportamiento中'Retiros / Cargos (-): 30'的记录一致。金额求和结果完全匹配，验证通过。</t>
         </is>
       </c>
     </row>
@@ -952,9 +937,9 @@
           <t>明细交易金额校验_单笔金额</t>
         </is>
       </c>
-      <c r="C24" s="8" t="inlineStr">
-        <is>
-          <t>命中 (违规)</t>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>未命中 (合规)</t>
         </is>
       </c>
       <c r="D24" s="7" t="inlineStr">
@@ -967,36 +952,132 @@
           <t>规则ID: MSTAR_BBVA_DTL_AMT_SINGLE
 规则名称: 明细交易金额校验_单笔金额
 执行步骤与结果：
-Step 1: 保持交易列表的原始顺序。已按提供的34笔交易原始顺序处理。
-Step 2: 确定初始锚点(Balance_1)。
-- 检查第一行交易（索引1）：有 'Operacion' 值 160868.01。
-- 因此，初始锚点 Balance_1 = 160868.01。计算起点从下一行（索引2）开始。
-Step 3 &amp; 4: 寻找下一个锚点(Balance_2)并进行区间核算。
-轮次1:
-- Balance_1 = 160868.01 (来自索引1的Operacion)。
-- 向下遍历，找到下一个有 'Operacion' 或 'SALDO OPERACIÓN' 的行：索引4，Operacion = 134586.73。此为 Balance_2。
-- 区间：索引2到索引4（含）。
-- 累加 Cargos: 索引2 (16182.0) + 索引3 (1373.54) = 17555.54
-- 累加 Abonos: 无。
-- 计算: result = Balance_1 - Sum(Cargos) + Sum(Abonos) - Balance_2 = 160868.01 - 17555.54 + 0 - 134586.73 = 8725.74
-- 结果: result = 8725.74 (不为0)。
-由于在第一个轮次就发现 result 不为 0，根据校验规则（任意一个轮次中result值不为0，输出不一致），判定为不一致。
-为提供完整证据，列出导致第一个轮次异常的具体交易明细：
-1. 索引2: Cargo: 16182.0
-2. 索引3: Cargo: 1373.54
-区间内Cargos总和: 17555.54
-计算过程：
-160868.01 (Balance_1) - 17555.54 (Sum(Cargos)) = 143312.47
-143312.47 - 134586.73 (Balance_2) = 8725.74 (result)
-结论：
-根据判断逻辑，在第一个核算区间（从索引1的Operacion到索引4的Operacion）内，计算出的result值不为0（=8725.74）。
-根据校验规则，只要任意一个轮次的result值不为0，即判定为不一致。
-因此，规则被命中（hit=true）。</t>
+1. 保持交易列表原始顺序：已按提供的34笔交易原始顺序处理。
+2. 确定初始锚点(Balance_1)：第一行交易（索引1）有'OPERACIÓN'值160868.01，将其记为Balance_1。计算起点从下一行（索引2）开始。
+3. 寻找下一个锚点(Balance_2)：向下遍历，找到下一个有'OPERACIÓN'或'SALDO OPERACIÓN'值的行。
+4. 区间核算：按照规则逻辑，在相邻两个锚点之间累加CARGOS和ABONOS，并验证公式 result = Balance_1 - Sum(Cargos) + Sum(Abonos) - Balance_2。
+详细核算过程（列出所有轮次，因总交易笔数34笔，但核算轮次少于30轮，故列出所有轮次明细）：
+轮次1：
+- Balance_1: 160868.01 (来自第1行)
+- Balance_2: 144686.01 (来自第2行)
+- 区间交易：第2行（CARGOS: 16182.0）
+- 计算：Sum(Cargos)=16182.0, Sum(Abonos)=0
+- result = 160868.01 - 16182.0 + 0 - 144686.01 = 0.0
+- 结果：一致 (result=0)
+轮次2：
+- Balance_1: 144686.01 (来自第2行)
+- Balance_2: 134586.73 (来自第4行)
+- 区间交易：第3行（CARGOS: 1373.54），第4行（CARGOS: 8725.74）
+- 计算：Sum(Cargos)=1373.54+8725.74=10099.28, Sum(Abonos)=0
+- result = 144686.01 - 10099.28 + 0 - 134586.73 = 0.0
+- 结果：一致 (result=0)
+轮次3：
+- Balance_1: 134586.73 (来自第4行)
+- Balance_2: 133082.8 (来自第5行)
+- 区间交易：第5行（CARGOS: 1503.93）
+- 计算：Sum(Cargos)=1503.93, Sum(Abonos)=0
+- result = 134586.73 - 1503.93 + 0 - 133082.8 = 0.0
+- 结果：一致 (result=0)
+轮次4：
+- Balance_1: 133082.8 (来自第5行)
+- Balance_2: 133065.4 (来自第7行)
+- 区间交易：第6行（CARGOS: 15.0），第7行（CARGOS: 2.4）
+- 计算：Sum(Cargos)=15.0+2.4=17.4, Sum(Abonos)=0
+- result = 133082.8 - 17.4 + 0 - 133065.4 = 0.0
+- 结果：一致 (result=0)
+轮次5：
+- Balance_1: 133065.4 (来自第7行)
+- Balance_2: 130561.2 (来自第9行)
+- 区间交易：第8行（CARGOS: 1639.2），第9行（CARGOS: 865.0）
+- 计算：Sum(Cargos)=1639.2+865.0=2504.2, Sum(Abonos)=0
+- result = 133065.4 - 2504.2 + 0 - 130561.2 = 0.0
+- 结果：一致 (result=0)
+轮次6：
+- Balance_1: 130561.2 (来自第9行)
+- Balance_2: 124221.09 (来自第11行)
+- 区间交易：第10行（CARGOS: 4400.0），第11行（CARGOS: 1940.11）
+- 计算：Sum(Cargos)=4400.0+1940.11=6340.11, Sum(Abonos)=0
+- result = 130561.2 - 6340.11 + 0 - 124221.09 = 0.0
+- 结果：一致 (result=0)
+轮次7：
+- Balance_1: 124221.09 (来自第11行)
+- Balance_2: 120575.53 (来自第13行)
+- 区间交易：第12行（CARGOS: 1562.56），第13行（CARGOS: 2083.0）
+- 计算：Sum(Cargos)=1562.56+2083.0=3645.56, Sum(Abonos)=0
+- result = 124221.09 - 3645.56 + 0 - 120575.53 = 0.0
+- 结果：一致 (result=0)
+轮次8：
+- Balance_1: 120575.53 (来自第13行)
+- Balance_2: 91172.68 (来自第15行)
+- 区间交易：第14行（CARGOS: 27970.0），第15行（CARGOS: 1432.85）
+- 计算：Sum(Cargos)=27970.0+1432.85=29402.85, Sum(Abonos)=0
+- result = 120575.53 - 29402.85 + 0 - 91172.68 = 0.0
+- 结果：一致 (result=0)
+轮次9：
+- Balance_1: 91172.68 (来自第15行)
+- Balance_2: 104810.27 (来自第16行)
+- 区间交易：第16行（ABONOS: 13637.59）
+- 计算：Sum(Cargos)=0, Sum(Abonos)=13637.59
+- result = 91172.68 - 0 + 13637.59 - 104810.27 = 0.0
+- 结果：一致 (result=0)
+轮次10：
+- Balance_1: 104810.27 (来自第16行)
+- Balance_2: 103349.71 (来自第17行)
+- 区间交易：第17行（CARGOS: 1460.56）
+- 计算：Sum(Cargos)=1460.56, Sum(Abonos)=0
+- result = 104810.27 - 1460.56 + 0 - 103349.71 = 0.0
+- 结果：一致 (result=0)
+轮次11：
+- Balance_1: 103349.71 (来自第17行)
+- Balance_2: 95562.04 (来自第18行)
+- 区间交易：第18行（CARGOS: 7787.67）
+- 计算：Sum(Cargos)=7787.67, Sum(Abonos)=0
+- result = 103349.71 - 7787.67 + 0 - 95562.04 = 0.0
+- 结果：一致 (result=0)
+轮次12：
+- Balance_1: 95562.04 (来自第18行)
+- Balance_2: 93001.34 (来自第21行)
+- 区间交易：第19行（CARGOS: 843.53），第20行（CARGOS: 1457.17），第21行（CARGOS: 260.0）
+- 计算：Sum(Cargos)=843.53+1457.17+260.0=2560.7, Sum(Abonos)=0
+- result = 95562.04 - 2560.7 + 0 - 93001.34 = 0.0
+- 结果：一致 (result=0)
+轮次13：
+- Balance_1: 93001.34 (来自第21行)
+- Balance_2: 90451.89 (来自第23行)
+- 区间交易：第22行（CARGOS: 1485.73），第23行（CARGOS: 1063.72）
+- 计算：Sum(Cargos)=1485.73+1063.72=2549.45, Sum(Abonos)=0
+- result = 93001.34 - 2549.45 + 0 - 90451.89 = 0.0
+- 结果：一致 (result=0)
+轮次14：
+- Balance_1: 90451.89 (来自第23行)
+- Balance_2: 234788.25 (来自第27行)
+- 区间交易：第24行（ABONOS: 82941.29），第25行（ABONOS: 63925.15），第26行（CARGOS: 1392.58），第27行（CARGOS: 1137.5）
+- 计算：Sum(Cargos)=1392.58+1137.5=2530.08, Sum(Abonos)=82941.29+63925.15=146866.44
+- result = 90451.89 - 2530.08 + 146866.44 - 234788.25 = 0.0
+- 结果：一致 (result=0)
+轮次15：
+- Balance_1: 234788.25 (来自第27行)
+- Balance_2: 189701.62 (来自第31行)
+- 区间交易：第28行（CARGOS: 3282.8），第29行（CARGOS: 29045.33），第30行（CARGOS: 4398.0），第31行（CARGOS: 8360.5）
+- 计算：Sum(Cargos)=3282.8+29045.33+4398.0+8360.5=45086.63, Sum(Abonos)=0
+- result = 234788.25 - 45086.63 + 0 - 189701.62 = 0.0
+- 结果：一致 (result=0)
+轮次16：
+- Balance_1: 189701.62 (来自第31行)
+- Balance_2: 125748.55 (来自第34行)
+- 区间交易：第32行（CARGOS: 63468.81），第33行（ABONOS: 3580.0），第34行（CARGOS: 4064.26）
+- 计算：Sum(Cargos)=63468.81+4064.26=67533.07, Sum(Abonos)=3580.0
+- result = 189701.62 - 67533.07 + 3580.0 - 125748.55 = 0.0
+- 结果：一致 (result=0)
+校验规则：记录每一个轮次中步骤4中的result值，是否所有的result都为0。
+决策结果：所有16个轮次的result值均为0，应输出一致（无异常）。
+结论：根据规则逻辑，所有核算区间的result值均为0，明细交易金额校验通过。
+hit值判定理由：根据决策结果，所有轮次result值均为0，输出一致，因此hit=false。</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>在第一个核算区间即发现金额不平衡，导致规则命中。后续轮次无需继续计算。</t>
+          <t>已严格按照规则定义的判断逻辑、校验规则和决策结果执行。所有16个核算区间的result值均为0，明细交易金额一致。；已根据 evidence 结尾的明确结论自动修正 hit 值为 False</t>
         </is>
       </c>
     </row>
@@ -1023,35 +1104,19 @@
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>【执行步骤1：获取Periodo信息】
-从数据中提取到Periodo信息为：'DEL 01/07/2025 AL 31/07/2025'。
-解析后得到步骤1的日期区间为：[01/07/2025, 31/07/2025]。
-【执行步骤2：计算明细中的最小和最大日期】
-根据规则，需要取'Detalle de Movimientos Realizados'中所有的OPER和LIQ日期。
-明细中总共有34笔交易，每笔都包含OPER和LIQ字段。
-提取所有日期（格式为DD/MMM，需结合年份2025）：
-- OPER日期列表（共34个）：03/JUL, 05/JUL, 07/JUL, 07/JUL, 08/JUL, 09/JUL, 09/JUL, 10/JUL, 10/JUL, 11/JUL, 11/JUL, 14/JUL, 14/JUL, 15/JUL, 15/JUL, 18/JUL, 21/JUL, 22/JUL, 23/JUL, 23/JUL, 23/JUL, 28/JUL, 28/JUL, 29/JUL, 29/JUL, 29/JUL, 29/JUL, 30/JUL, 30/JUL, 30/JUL, 30/JUL, 31/JUL, 31/JUL, 31/JUL。
-- LIQ日期列表（共34个）：01/JUL, 07/JUL, 04/JUL, 07/JUL, 07/JUL, 09/JUL, 09/JUL, 10/JUL, 10/JUL, 10/JUL, 10/JUL, 11/JUL, 11/JUL, 15/JUL, 14/JUL, 18/JUL, 18/JUL, 21/JUL, 23/JUL, 22/JUL, 22/JUL, 25/JUL, 25/JUL, 29/JUL, 29/JUL, 28/JUL, 28/JUL, 30/JUL, 30/JUL, 28/JUL, 28/JUL, 31/JUL, 31/JUL, 31/JUL。
-合并所有日期并转换为完整日期（年份为2025），然后找出最小日期（min_date）和最大日期（max_date）。
-最小日期（min_date）：从LIQ列表中看到'01/JUL'，对应完整日期为01/07/2025。
-最大日期（max_date）：从OPER和LIQ列表中看到'31/JUL'，对应完整日期为31/07/2025。
-因此，步骤2的结果为：min_date = 01/07/2025, max_date = 31/07/2025。
-【执行校验规则】
-校验规则：判断步骤2中的min_date和max_date是否在步骤1的日期区间范围内。
-步骤1的日期区间：[01/07/2025, 31/07/2025]。
-步骤2的min_date（01/07/2025）等于区间起始日（01/07/2025），在区间内。
-步骤2的max_date（31/07/2025）等于区间结束日（31/07/2025），在区间内。
-因此，min_date和max_date均在步骤1的日期区间范围内。
-【决策结果】
-根据规则，如果min_date和max_date在区间范围内，输出“一致（无异常）”。
-当前情况符合，故输出：一致（无异常）。
-【hit值判定】
-根据规则，输出“一致（无异常）”对应hit=false。</t>
+          <t>执行步骤1：从提供的数据中获取模糊匹配包含'Periodo'的信息。找到两处：'Periodo: DEL 01/07/2025 AL 31/07/2025'。因此，步骤1的日期区间为 [DEL 01/07/2025, AL 31/07/2025]。
+执行步骤2：从'Detalle de Movimientos Realizados'中提取所有交易的OPER和LIQ日期。共34笔交易。所有日期均为'DD/MMM'格式，结合Periodo信息，补充年份为2025。计算最小日期(min_date)和最大日期(max_date)。
+- 最小日期(min_date)：交易1的Liq日期为01/JUL/2025。
+- 最大日期(max_date)：交易34的Liq日期为31/JUL/2025。
+执行校验规则：判断步骤2中的min_date(01/07/2025)和max_date(31/07/2025)是否在步骤1的日期区间[01/07/2025, 31/07/2025]范围内。
+比较结果：min_date(01/07/2025)等于区间起始日(01/07/2025)，max_date(31/07/2025)等于区间结束日(31/07/2025)。两者均在区间范围内。
+决策结果：根据规则，min_date和max_date在区间范围内，输出“一致（无异常）”。
+判定理由：根据决策结果，输出“一致”，因此hit=false。</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>规则仅校验min_date和max_date是否在Periodo区间内，不要求完全覆盖。经核查，明细中最早LIQ日期为01/JUL/2025，最晚日期为31/JUL/2025，均在Periodo（01/07/2025至31/07/2025）内，故判定为一致。</t>
+          <t>所有交易日期均在Periodo指定的月份内，日期范围完全匹配。</t>
         </is>
       </c>
     </row>
@@ -1078,52 +1143,26 @@
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>步骤1执行结果：已从‘Detalle de Movimientos Realizados’中提取所有34笔交易的‘描述’字段。
-步骤2执行结果：将所有描述翻译成中文。翻译结果如下：
+          <t>步骤1：取出Detalle de Movimientos Realizados中所有交易的DESCRIPCION值。
+步骤2：将所有DESCRIPCION值翻译成中文。
+执行步骤1：从提供的34笔交易明细中提取所有'描述'字段的值。
+执行步骤2：将提取的西班牙语描述翻译为中文。翻译结果示例如下：
 1. SERVICIOSMODERNOSJILOT -&gt; 现代服务JILOT
-2. PAGO CUENTA DE TERCERO 0060782423 BNET 0460107182 Silicones -&gt; 向第三方账户付款 0060782423 BNET 0460107182 硅胶
+2. PAGO CUENTA DE TERCERO ... -&gt; 向第三方账户付款...
 3. SERV DEL CANTABRICO -&gt; 坎塔布里科服务
-4. SPEI ENVIADO SANTANDER 0033484832 014 0707250Herramientas 00014180655107788777 BNET01002507070033484832 HERRAMIENTAS JK -&gt; SPEI发送至桑坦德银行 0033484832 014 0707250工具 00014180655107788777 BNET01002507070033484832 工具 JK
+4. SPEI ENVIADO SANTANDER ... -&gt; SPEI发送至桑坦德银行...
 5. BP ORQUIDEA -&gt; BP ORQUIDEA
-6. SERV BANCA INTERNET OPS SERV BCA IN -&gt; 网上银行服务操作 网上银行服务
-7. IVA COM SERV BCA INTERNET IVA COM SERV BC -&gt; 网上银行服务增值税 网上银行服务增值税
-8. PAGO CUENTA DE TERCERO 0097117530 BNET 0133529169 Pago diferen de fa -&gt; 向第三方账户付款 0097117530 BNET 0133529169 支付差额
-9. CABLE Y COMUNICACION17350 CCM010816UK4 Su Pago Gracias 3237419 -&gt; 电缆与通信17350 CCM010816UK4 感谢您的付款 3237419
-10. MERPAGO*NOHEMIIVONNEM -&gt; 市场支付*NOHEMIIVONNEM
-11. SERVICIO PERIBAZ -&gt; PERIBAZ服务
-12. BP ORQUIDEA -&gt; BP ORQUIDEA
-13. HOME DEPOT -&gt; 家得宝
-14. CHEQUE PAGADO NO. -&gt; 已付支票号。
-15. GAS EL ONCE CUAMATLA -&gt; 十一区CUAMATLA天然气
-16. PAGO CUENTA DE TERCERO 0077413032 BNET 0107419155 EDWIN ANTONIO -&gt; 向第三方账户付款 0077413032 BNET 0107419155 EDWIN ANTONIO
-17. GASOL SERV COMBUSA -&gt; 汽油服务 COMBUSA
-18. MERCADO PAGO -&gt; 市场支付
-19. AT&amp;T COMUNICACIONES 21433 CNM980114PI2 CARGO RECURRENTE ATT -&gt; AT&amp;T通信 21433 CNM980114PI2 定期收费 ATT
-20. GASOL BP SAT SMA 2 -&gt; 汽油 BP SAT SMA 2
-21. SERV DEL CANTABRICO -&gt; 坎塔布里科服务
-22. GAS EL ONCE CUAMATLA -&gt; 十一区CUAMATLA天然气
-23. SERV DEL CANTABRICO -&gt; 坎塔布里科服务
-24. SPEI RECIBIDOSCOTIABANK 0133969035 044 0290725folio fiscal 09834FCA1873 00044180001059308175 2025072940044B36L0000389741682 ZAMUDIO MARTINEZ VICTOR HUGO -&gt; SPEI接收自丰业银行 0133969035 044 0290725税务凭证 09834FCA1873 00044180001059308175 2025072940044B36L0000389741682 ZAMUDIO MARTINEZ VICTOR HUGO
-25. SPEI RECIBIDOSCOTIABANK 0133977330 044 0290725folio fiscal C28F886E7A59 00044180001059308175 2025072940044B36L0000389742071 ZAMUDIO MARTINEZ VICTOR HUGO -&gt; SPEI接收自丰业银行 0133977330 044 0290725税务凭证 C28F886E7A59 00044180001059308175 2025072940044B36L0000389742071 ZAMUDIO MARTINEZ VICTOR HUGO
-26. GAS EL ONCE CUAMATLA -&gt; 十一区CUAMATLA天然气
-27. LIVERPOOL SATELITE -&gt; 利物浦卫星店
-28. SPEI ENVIADO BANAMEX 0039320378 002 3107250Honorarios cp 00002180095683836100 BNET01002507310039320378 ERIKA FERNANDEZ CASILLAS -&gt; SPEI发送至墨西哥国民银行 0039320378 002 3107250费用 cp 00002180095683836100 BNET01002507310039320378 ERIKA FERNANDEZ CASILLAS
-29. PAGO CUENTA DE TERCERO 0057618647 BNET 0444065476 Herramientas edw -&gt; 向第三方账户付款 0057618647 BNET 0444065476 工具 edw
-30. S218 TM SATELITE NAUC -&gt; S218 TM 卫星 NAUC
-31. AUTOZONE 7188 -&gt; 汽车地带 7188
-32. PAGO CUENTA DE TERCERO 0014028270 BNET 0197588054 Tornifac0415250 -&gt; 向第三方账户付款 0014028270 BNET 0197588054 Tornifac0415250
-33. DEPOSITO EN EFECTIVO 2051DEPOSITO -&gt; 现金存款 2051存款
-34. SPEI ENVIADO SANTANDER 0039712045 014 3107250Guantes 00014180655107788777 BNET01002507310039712045 HERRAMIENTAS JK -&gt; SPEI发送至桑坦德银行 0039712045 014 3107250手套 00014180655107788777 BNET01002507310039712045 工具 JK
-校验规则执行结果：将上述34条中文描述与规则关键词列表逐一比对。
+... (后续交易描述翻译略，均为常规交易描述，如服务费、转账、购物、存款等)
+校验规则：检查所有翻译后的中文描述是否命中任意一个高风险职业关键词。
 关键词列表：现金密集型业务；小型零售商和街头摊贩（如露天市场摊贩）；夜总会；酒吧；娱乐场所经营者；灰色；非法行业关联者；未注册或非正式的安保服务提供商；涉嫌贷款翻转或文件造假的汽车贷款经纪人或中介；可能与贩毒或有组织犯罪相关的幌子企业（如虚假奢侈品转售店、空壳运输公司）；欺诈高发行业；不受监管的汽车经销商或中介，尤其是推广 “零首付” 优惠的或收入不规律或无法核实的自雇人士；在汽车金融行业工作的个人；独立或未注册的汽车维修店员工。
-比对结论：所有34条中文描述均未包含上述任意关键词。交易描述主要为：服务提供商（如SERVICIOSMODERNOSJILOT、SERV DEL CANTABRICO）、第三方转账（PAGO CUENTA DE TERCERO）、SPEI转账、加油站（BP ORQUIDEA、GASOL）、零售店（HOME DEPOT、LIVERPOOL、AUTOZONE）、公用事业费（GAS EL ONCE CUAMATLA、CABLE Y COMUNICACION）、网上银行服务费、支票支付、现金存款等。这些描述与规则定义的高风险职业关键词无匹配。
-决策结果：由于未命中任何关键词，输出‘正常’。
-因此，hit=false。</t>
+检查结果：对所有34笔交易的翻译后描述进行逐一比对，未发现任何描述包含或匹配上述关键词。交易描述主要为：服务费支付、向第三方账户转账、SPEI电子转账、商店消费（如HOME DEPOT, LIVERPOOL, AUTOZONE）、公用事业费（如GAS, CABLE）、存款等。这些描述均不涉及高风险职业。
+决策结果：全部都没命中，输出正常。
+结论：根据规则定义的校验逻辑，未发现任何交易描述命中高风险职业关键词。因此，规则未命中。</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>严格按照规则步骤执行：提取描述、翻译、关键词比对。所有交易描述均为常规商业或个人交易，未发现与高风险职业相关的关键词。</t>
+          <t>所有交易描述均为常规商业或个人交易，未发现与规则定义的高风险职业相关的关键词。</t>
         </is>
       </c>
     </row>
@@ -1153,22 +1192,26 @@
           <t>规则ID: MSTAR_BBVA_DTL_ANAL_FAST_IO
 规则名称: 交易明细分析_快进快出
 执行步骤与结果：
-1. 步骤1：已获取Detalle de Movimientos Realizados中全部34条记录，并按OPER日期升序排序（原始数据已按此顺序）。
-2. 步骤2：统计所有记录中ABONOS取值不为空的总记录数。根据数据，'其中包含有效 Abonos (入账) 的交易数'为4，因此 total_cargo_cnt = 4。
-3. 步骤3-6：从第一条记录开始，逐一查找ABONOS不为空的行作为起始行，并执行匹配逻辑。
-   - 第1个Abonos（起始行16）：OPER1=18/JUL，ABONOS1=13637.59。向下查找CARGOS列值与13637.59相同的记录。遍历后续记录（第17至34行），未找到CARGOS值为13637.59的记录。因此，无法找到OPER2，本轮result无法计算，不计入result_total。
-   - 第2个Abonos（起始行24）：OPER1=29/JUL，ABONOS1=82941.29。向下查找CARGOS列值与82941.29相同的记录。遍历后续记录（第25至34行），未找到CARGOS值为82941.29的记录。因此，无法找到OPER2，本轮result无法计算，不计入result_total。
-   - 第3个Abonos（起始行25）：OPER1=29/JUL，ABONOS1=63925.15。向下查找CARGOS列值与63925.15相同的记录。遍历后续记录（第26至34行），未找到CARGOS值为63925.15的记录。因此，无法找到OPER2，本轮result无法计算，不计入result_total。
-   - 第4个Abonos（起始行33）：OPER1=31/JUL，ABONOS1=3580.0。向下查找CARGOS列值与3580.0相同的记录。遍历后续记录（仅第34行），未找到CARGOS值为3580.0的记录。因此，无法找到OPER2，本轮result无法计算，不计入result_total。
-4. 校验规则1：在所有4轮查找中，均未找到与Abonos金额相同的Cargos记录，因此没有任何一轮可以计算出result值，result_total = 0。
-5. 校验规则2：ratio = result_total / total_cargo_cnt = 0 / 4 = 0。
-6. 决策结果：ratio (0) &lt;= 0.8，因此输出“未命中快进快出（无异常）”。
-结论：根据规则逻辑，未发现快进快出现象。</t>
+步骤1：已按OPER日期升序排序（原始数据已按此顺序提供）。
+步骤2：统计所有记录中ABONOS取值不为空的总记录数。根据数据，'其中包含有效 Abonos (入账) 的交易数'为 4，因此 total_cargo_cnt = 4。
+步骤3-6：逐一查找ABONOS不为空的记录作为起始行，并寻找其对应的CARGOS记录。
+详细轮次分析：
+1. 起始行（第16条）：OPER1 = 18/JUL，ABONOS1 = 13637.59。向下查找CARGOS值为13637.59的记录。遍历后续记录（第17至34条），未找到CARGOS等于13637.59的记录。因此，无法找到OPER2，本轮result无法计算，不计入result_total。
+2. 起始行（第24条）：OPER1 = 29/JUL，ABONOS1 = 82941.29。向下查找CARGOS值为82941.29的记录。遍历后续记录（第25至34条），未找到CARGOS等于82941.29的记录。因此，无法找到OPER2，本轮result无法计算，不计入result_total。
+3. 起始行（第25条）：OPER1 = 29/JUL，ABONOS1 = 63925.15。向下查找CARGOS值为63925.15的记录。遍历后续记录（第26至34条），未找到CARGOS等于63925.15的记录。因此，无法找到OPER2，本轮result无法计算，不计入result_total。
+4. 起始行（第33条）：OPER1 = 31/JUL，ABONOS1 = 3580.0。向下查找CARGOS值为3580.0的记录。遍历后续记录（仅第34条），未找到CARGOS等于3580.0的记录。因此，无法找到OPER2，本轮result无法计算，不计入result_total。
+校验规则执行：
+1. 在所有4轮分析中，均未找到与ABONOS金额匹配的CARGOS记录，因此没有任何一轮可以计算出result值。result_total = 0。
+2. ratio = result_total / total_cargo_cnt = 0 / 4 = 0。
+决策结果：
+ratio (0) &lt;= 0.8，因此输出“未命中快进快出（无异常）”。
+结论：
+根据规则逻辑，未发现快进快出模式。</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>规则逻辑要求查找与每笔入账（Abonos）金额相同的最近一笔出账（Cargos），并计算其日期差。在本数据集中，4笔入账均未找到金额完全匹配的出账记录，因此无法构成任何‘快进快出’的配对，ratio为0，判定为无异常。</t>
+          <t>所有ABONOS交易均未在后续找到金额完全匹配的CARGOS交易，因此无法计算任何间隔天数。规则基于匹配成功后的间隔天数判断，本案例中无匹配，故无异常。</t>
         </is>
       </c>
     </row>
@@ -1197,24 +1240,18 @@
         <is>
           <t>规则ID: MSTAR_BBVA_DTL_ANAL_ABN_REM
 规则名称: 交易明细分析_异常备注
-执行步骤（严格按照判断逻辑）：
-步骤1：获取解析后Detalle de Movimientos Realizados部分的description对应的所有的值。
-执行结果：已从提供的34笔交易明细中提取所有‘描述’字段的值。
-校验规则（严格按照校验规则）：
-判断DESCRIPCION对应的所有的值是否包含以下任意关键词：Apuesta，médico / médic，juego。
-执行结果：
-- 逐条检查34笔交易的描述，未发现任何描述包含关键词‘Apuesta’。
-- 逐条检查34笔交易的描述，未发现任何描述包含关键词‘médico’或‘médic’。
-- 逐条检查34笔交易的描述，未发现任何描述包含关键词‘juego’。
-决策结果（严格按照决策结果）：
-命中任意一个，输出异常；全部都没命中，输出正常。
-执行结果：所有关键词均未命中，输出正常。
-结论：所有交易描述均不包含规则定义的异常关键词（Apuesta, médico / médic, juego）。规则未命中。</t>
+执行步骤与结果：
+1. 按照判断逻辑步骤1：获取解析后Detalle de Movimientos Realizados部分所有交易的描述（DESCRIPCION）值。已提取全部34笔交易的描述。
+2. 按照校验规则：逐一检查所有描述是否包含以下任意关键词：Apuesta，médico / médic，juego。
+3. 检查结果：所有34条交易描述中，均未发现包含关键词“Apuesta”、“médico / médic”或“juego”。
+   - 示例检查：第1条描述“SERVICIOSMODERNOSJILOT”不包含关键词；第2条“PAGO CUENTA DE TERCERO...”不包含关键词；... 第34条“SPEI ENVIADO SANTANDER...”不包含关键词。
+4. 按照决策结果：由于所有描述均未命中任意一个关键词，因此输出“正常”。
+结论：所有交易描述均未包含规则定义的异常关键词（Apuesta，médico / médic，juego），规则未命中。</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>已严格按照规则定义的逻辑和关键词进行逐笔检查，未发现违规描述。</t>
+          <t>已严格按照判断逻辑、校验规则和决策结果执行。检查了全部34笔交易的描述，未发现违规内容。</t>
         </is>
       </c>
     </row>
@@ -1243,73 +1280,59 @@
         <is>
           <t>规则ID: MSTAR_BBVA_TIME_CHK_SPECIAL
 规则名称: 交易时间校验_特殊时间段交易
-执行步骤说明：
-步骤1：遍历Detalle de Movimientos Realizados的34条记录，从每条记录的描述（description）中提取时间。
+执行步骤（严格按照判断逻辑）：
+步骤1：遍历Detalle de Movimientos Realizados的34条记录，从描述（description）中提取时间。
 - 记录1描述: "SERVICIOSMODERNOSJILOT ... 18:31 AUT: 097247" -&gt; 提取时间: 18:31
-- 记录2描述: "PAGO CUENTA DE TERCERO ..." -&gt; 无时间信息，跳过。
+- 记录2描述: "PAGO CUENTA DE TERCERO ..." -&gt; 无时间，跳过
 - 记录3描述: "SERV DEL CANTABRICO ... 11:04 AUT: 0CRV8T" -&gt; 提取时间: 11:04
-- 记录4描述: "SPEI ENVIADO SANTANDER ..." -&gt; 无时间信息，跳过。
+- 记录4描述: "SPEI ENVIADO SANTANDER ..." -&gt; 无时间，跳过
 - 记录5描述: "BP ORQUIDEA ... 18:02 AUT: 198LEW" -&gt; 提取时间: 18:02
-- 记录6描述: "SERV BANCA INTERNET OPS ..." -&gt; 无时间信息，跳过。
-- 记录7描述: "IVA COM SERV BCA INTERNET ..." -&gt; 无时间信息，跳过。
-- 记录8描述: "PAGO CUENTA DE TERCERO ..." -&gt; 无时间信息，跳过。
-- 记录9描述: "CABLE Y COMUNICACION17350 ..." -&gt; 无时间信息，跳过。
+- 记录6描述: "SERV BANCA INTERNET OPS SERV BCA IN" -&gt; 无时间，跳过
+- 记录7描述: "IVA COM SERV BCA INTERNET IVA COM SERV BC" -&gt; 无时间，跳过
+- 记录8描述: "PAGO CUENTA DE TERCERO ..." -&gt; 无时间，跳过
+- 记录9描述: "CABLE Y COMUNICACION17350 ..." -&gt; 无时间，跳过
 - 记录10描述: "MERPAGO*NOHEMIIVONNEM ... 14:56 AUT: 1WXIRC" -&gt; 提取时间: 14:56
 - 记录11描述: "SERVICIO PERIBAZ ... 18:09 AUT: 1YVUNP" -&gt; 提取时间: 18:09
 - 记录12描述: "BP ORQUIDEA ... 14:56 AUT: 655443" -&gt; 提取时间: 14:56
 - 记录13描述: "HOME DEPOT ... 18:20 AUT: 674357" -&gt; 提取时间: 18:20
-- 记录14描述: "CHEQUE PAGADO NO." -&gt; 无时间信息，跳过。
+- 记录14描述: "CHEQUE PAGADO NO." -&gt; 无时间，跳过
 - 记录15描述: "GAS EL ONCE CUAMATLA ... 20:48 AUT: 736320" -&gt; 提取时间: 20:48
-- 记录16描述: "PAGO CUENTA DE TERCERO ..." -&gt; 无时间信息，跳过。
+- 记录16描述: "PAGO CUENTA DE TERCERO ..." -&gt; 无时间，跳过
 - 记录17描述: "GASOL SERV COMBUSA ... 14:32 AUT: 649781" -&gt; 提取时间: 14:32
 - 记录18描述: "MERCADO PAGO ... 02:39 AUT: 029858" -&gt; 提取时间: 02:39
-- 记录19描述: "AT&amp;T COMUNICACIONES ..." -&gt; 无时间信息，跳过。
+- 记录19描述: "AT&amp;T COMUNICACIONES ..." -&gt; 无时间，跳过
 - 记录20描述: "GASOL BP SAT SMA 2 ... 15:11 AUT: 162915" -&gt; 提取时间: 15:11
 - 记录21描述: "SERV DEL CANTABRICO ... 20:20 AUT: 268176" -&gt; 提取时间: 20:20
 - 记录22描述: "GAS EL ONCE CUAMATLA ... 09:56 AUT: 451806" -&gt; 提取时间: 09:56
 - 记录23描述: "SERV DEL CANTABRICO ... 18:26 AUT: 814079" -&gt; 提取时间: 18:26
-- 记录24描述: "SPEI RECIBIDOSCOTIABANK ..." -&gt; 无时间信息，跳过。
-- 记录25描述: "SPEI RECIBIDOSCOTIABANK ..." -&gt; 无时间信息，跳过。
+- 记录24描述: "SPEI RECIBIDOSCOTIABANK ..." -&gt; 无时间，跳过
+- 记录25描述: "SPEI RECIBIDOSCOTIABANK ..." -&gt; 无时间，跳过
 - 记录26描述: "GAS EL ONCE CUAMATLA ... 15:54 AUT: 253165" -&gt; 提取时间: 15:54
 - 记录27描述: "LIVERPOOL SATELITE ... 20:12 AUT: 676187" -&gt; 提取时间: 20:12
-- 记录28描述: "SPEI ENVIADO BANAMEX ..." -&gt; 无时间信息，跳过。
-- 记录29描述: "PAGO CUENTA DE TERCERO ..." -&gt; 无时间信息，跳过。
+- 记录28描述: "SPEI ENVIADO BANAMEX ..." -&gt; 无时间，跳过
+- 记录29描述: "PAGO CUENTA DE TERCERO ..." -&gt; 无时间，跳过
 - 记录30描述: "S218 TM SATELITE NAUC ... 21:50 AUT: 270651" -&gt; 提取时间: 21:50
 - 记录31描述: "AUTOZONE 7188 ... 16:14 AUT: 583588" -&gt; 提取时间: 16:14
-- 记录32描述: "PAGO CUENTA DE TERCERO ..." -&gt; 无时间信息，跳过。
-- 记录33描述: "DEPOSITO EN EFECTIVO ..." -&gt; 无时间信息，跳过。
-- 记录34描述: "SPEI ENVIADO SANTANDER ..." -&gt; 无时间信息，跳过。
-步骤2：将提取到的时间放入集合。提取到的时间列表（按记录顺序）：['18:31', '11:04', '18:02', '14:56', '18:09', '14:56', '18:20', '20:48', '14:32', '02:39', '15:11', '20:20', '09:56', '18:26', '15:54', '20:12', '21:50', '16:14']。
+- 记录32描述: "PAGO CUENTA DE TERCERO ..." -&gt; 无时间，跳过
+- 记录33描述: "DEPOSITO EN EFECTIVO 2051DEPOSITO" -&gt; 无时间，跳过
+- 记录34描述: "SPEI ENVIADO SANTANDER ..." -&gt; 无时间，跳过
+步骤2：将获取到的时间放入集合。提取到的时间集合为：['18:31', '11:04', '18:02', '14:56', '18:09', '14:56', '18:20', '20:48', '14:32', '02:39', '15:11', '20:20', '09:56', '18:26', '15:54', '20:12', '21:50', '16:14']。
 步骤3：统计处于2点至5点（包括2点和5点，24小时制）的交易笔数。
-- 检查每个时间：
-  * 18:31 -&gt; 不在区间内。
-  * 11:04 -&gt; 不在区间内。
-  * 18:02 -&gt; 不在区间内。
-  * 14:56 -&gt; 不在区间内。
-  * 18:09 -&gt; 不在区间内。
-  * 14:56 -&gt; 不在区间内。
-  * 18:20 -&gt; 不在区间内。
-  * 20:48 -&gt; 不在区间内。
-  * 14:32 -&gt; 不在区间内。
-  * 02:39 -&gt; 在区间内（2点-5点）。
-  * 15:11 -&gt; 不在区间内。
-  * 20:20 -&gt; 不在区间内。
-  * 09:56 -&gt; 不在区间内。
-  * 18:26 -&gt; 不在区间内。
-  * 15:54 -&gt; 不在区间内。
-  * 20:12 -&gt; 不在区间内。
-  * 21:50 -&gt; 不在区间内。
-  * 16:14 -&gt; 不在区间内。
-- 统计结果：仅记录18（时间02:39）处于2点-5点区间。因此，count = 1。
-校验规则：判断 count 是否大于 10。
-比较结果：count = 1，1 &lt;= 10。
-决策结果：count &lt;= 10，输出“正常”。
-最终判定：根据决策结果，交易时间正常，规则未命中。因此 hit=false。</t>
+- 遍历时间集合，检查每个时间的小时部分（HH:MM中的HH）。
+- 时间'02:39'的小时为02，在[2,5]区间内。
+- 其他时间的小时分别为18, 11, 18, 14, 18, 14, 18, 20, 14, 15, 20, 09, 18, 15, 20, 21, 16，均不在[2,5]区间内。
+- 因此，count = 1。
+校验规则（严格执行）：判断count是否大于10。
+- count = 1，1 &lt;= 10。
+决策结果（严格执行）：如果count&gt;10，输出交易时间异常；count&lt;=10，输出正常。
+- 由于count=1 &lt;= 10，输出：正常。
+结论：根据规则逻辑，统计到的特殊时间段（02:00-05:00）交易笔数为1笔，未超过10笔的阈值。因此，规则未命中，判定为合规。
+hit值判定：根据决策结果（正常），hit=false。</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>严格按照规则定义的步骤执行：提取所有描述中的时间，统计处于2点至5点（含）的交易笔数。统计结果为1笔，未超过10笔的阈值，故判定为正常。</t>
+          <t>规则校验通过。仅发现1笔交易（记录18：MERCADO PAGO，时间02:39）处于特殊时间段（02:00-05:00），未超过10笔的阈值。</t>
         </is>
       </c>
     </row>
